--- a/Python3/src/18 Financial Python/Spreadsheets/data/charts2.xlsx
+++ b/Python3/src/18 Financial Python/Spreadsheets/data/charts2.xlsx
@@ -667,7 +667,7 @@
         <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4" spans="1:3">
